--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871742.146112202</v>
+        <v>-828275.9800815147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16775128.44796222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9745935.968527064</v>
+        <v>9764504.760989737</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>352.7437762020498</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +668,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>77.68760678593097</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -716,13 +716,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>226.7265043118141</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.35600810421356</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>65.07405371603522</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,16 +902,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>73.09561079076808</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>253.3004145557233</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.2701778859457</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>166.476736033351</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>279.6495155803757</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>9.913506155704239</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5045623019739196</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,16 +1370,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>179.3702076527412</v>
+        <v>32.68424592581974</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946033</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168186</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9969996527465</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>159.726963235198</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587664</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.05677735225816</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313668</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>85.55329631630696</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>134.9254647561359</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>76.02431517303447</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225714</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742935408</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>495.1388083140041</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2591.588496344629</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2371.521269217667</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2112.298966534684</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1749.68201646851</v>
       </c>
       <c r="W2" t="n">
-        <v>813.0384456815061</v>
+        <v>1344.826561879544</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>925.6840984588545</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>921.4383787989119</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6507226398521</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C4" t="n">
-        <v>210.6507226398521</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W4" t="n">
-        <v>720.185388501638</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X4" t="n">
-        <v>474.7936338350505</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.3739631491588</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.14448398095</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.042415204777</v>
+        <v>394.6909682672097</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.173034419626</v>
+        <v>362.8215874820583</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>333.0872466807575</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>309.2602211303693</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.403650425453</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.062614956869</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1292.062614956869</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1292.062614956869</v>
+        <v>992.5572028308845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2064.521149734736</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C8" t="n">
-        <v>2030.419080958563</v>
+        <v>1484.005231016237</v>
       </c>
       <c r="D8" t="n">
-        <v>1594.509296133008</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.734551291303</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>732.8671217005108</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>331.4692903237747</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>477.5938232199089</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1001.540628336422</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1001.540628336422</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1001.540628336422</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1001.540628336422</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1001.540628336422</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1423.855918479979</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1947.802723596492</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349549</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2106.94314576803</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2106.94314576803</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.94314576803</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.128095219467</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>2091.026035839182</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2086.780316179239</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582837</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.0544195949261</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414793</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.843716068433</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845946</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077851</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744858</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.9611338936609</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>916.9079390101743</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034947</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588261</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8147818380469</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>892.8351728439222</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>720.2734613271472</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>554.3954685286699</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>384.6374647794071</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>207.9304107411633</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699099</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699099</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>42.33913576699099</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>460.549017534952</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>920.032884715865</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1362.29168787351</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1781.960937099291</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349549</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2116.956788349549</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2116.956788349549</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2116.447129458666</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1829.491621329097</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1557.465216915389</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.073462248801</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1084.653791562909</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1344.270035449388</v>
+        <v>1769.593692650368</v>
       </c>
       <c r="C11" t="n">
-        <v>906.1275626328111</v>
+        <v>1769.593692650368</v>
       </c>
       <c r="D11" t="n">
-        <v>906.1275626328111</v>
+        <v>1333.683907824812</v>
       </c>
       <c r="E11" t="n">
-        <v>472.3528177911062</v>
+        <v>899.9091629831071</v>
       </c>
       <c r="F11" t="n">
-        <v>472.3528177911062</v>
+        <v>472.0417333923149</v>
       </c>
       <c r="G11" t="n">
-        <v>70.95498641437011</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437011</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151012</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151012</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="K11" t="n">
-        <v>70.53819704151012</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="L11" t="n">
-        <v>79.86941207604647</v>
+        <v>909.5402384505765</v>
       </c>
       <c r="M11" t="n">
-        <v>952.7796004647341</v>
+        <v>1783.758525893363</v>
       </c>
       <c r="N11" t="n">
-        <v>1825.689788853422</v>
+        <v>2657.97681333615</v>
       </c>
       <c r="O11" t="n">
-        <v>2698.59997724211</v>
+        <v>3532.195100778936</v>
       </c>
       <c r="P11" t="n">
-        <v>3526.909852075506</v>
+        <v>3532.195100778936</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075506</v>
+        <v>3532.195100778936</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075506</v>
+        <v>3532.195100778936</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259343</v>
+        <v>3532.195100778936</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259343</v>
+        <v>3312.127873651975</v>
       </c>
       <c r="U11" t="n">
-        <v>3184.03567557636</v>
+        <v>3052.905570968992</v>
       </c>
       <c r="V11" t="n">
-        <v>3002.853647644298</v>
+        <v>3019.891181144932</v>
       </c>
       <c r="W11" t="n">
-        <v>2597.998193055331</v>
+        <v>2615.035726555965</v>
       </c>
       <c r="X11" t="n">
-        <v>2178.855729634642</v>
+        <v>2195.893263135275</v>
       </c>
       <c r="Y11" t="n">
-        <v>1770.569605934295</v>
+        <v>2195.893263135275</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>576.8156470068715</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>470.3591858435138</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>375.268896990067</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>281.1484823170208</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>197.7646439331824</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252977</v>
+        <v>112.3795541993663</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151012</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196771</v>
+        <v>96.70757517603633</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="K12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="L12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="M12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="N12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="O12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.42822594277</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.91303527334</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>979.4727630685338</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>824.6053273074139</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>698.1195480866346</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.596357653392</v>
+        <v>1026.017185854736</v>
       </c>
       <c r="C13" t="n">
-        <v>977.0346461366165</v>
+        <v>853.4554743379605</v>
       </c>
       <c r="D13" t="n">
-        <v>811.1566533381392</v>
+        <v>687.5774815394832</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888764</v>
+        <v>517.8194777902204</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506326</v>
+        <v>341.1124237519766</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764603</v>
+        <v>175.5211487778043</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668348</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151012</v>
+        <v>70.64390201557873</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062</v>
+        <v>157.2235871802686</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>431.9820417514042</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>850.1919235193652</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.779985649681</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.538616947678</v>
+        <v>2528.062143216375</v>
       </c>
       <c r="T13" t="n">
-        <v>2506.538616947678</v>
+        <v>2528.062143216375</v>
       </c>
       <c r="U13" t="n">
-        <v>2373.208314268136</v>
+        <v>2249.62914246948</v>
       </c>
       <c r="V13" t="n">
-        <v>2086.252806138566</v>
+        <v>1962.67363433991</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.226401724858</v>
+        <v>1690.647229926202</v>
       </c>
       <c r="X13" t="n">
-        <v>1568.834647058271</v>
+        <v>1445.255475259615</v>
       </c>
       <c r="Y13" t="n">
-        <v>1341.414976372379</v>
+        <v>1217.835804573723</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,7 +5285,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5303,25 +5303,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5519,10 +5519,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5540,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>1077.292364523337</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5680,43 +5680,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594804</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928216</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1269.110983242324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,37 +5738,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436406</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6195887352246</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>852.6195887352246</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.174348374284</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>866.6126368575085</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>700.7346440590312</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>530.9766403097684</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>354.2695862715246</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>188.6783112973523</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I22" t="n">
         <v>102.2608402707796</v>
-      </c>
-      <c r="I22" t="n">
-        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>2026.844126920465</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1754.817722506757</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1509.425967840169</v>
       </c>
       <c r="Y22" t="n">
-        <v>1230.992967093271</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030281</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
         <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7157,19 +7157,19 @@
         <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835861</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7184,19 +7184,19 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7208,7 +7208,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
         <v>97.56670367581785</v>
@@ -7418,10 +7418,10 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
         <v>3334.372458245845</v>
@@ -7436,7 +7436,7 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7445,7 +7445,7 @@
         <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
         <v>3629.919912574025</v>
@@ -7546,19 +7546,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7567,13 +7567,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7603,10 +7603,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581785</v>
@@ -7673,25 +7673,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7801,34 +7801,34 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>529.2391970873873</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>426.5811011551077</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873873</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873873</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543156</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873873</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>338.3796477275339</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,19 +8693,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.425469731854903</v>
+        <v>847.3700368030281</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.048775194734</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.0487751947339</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.0487751947339</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>757.9381297620657</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,13 +11066,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>901.152332228356</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>5.127748292070393</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>179.6205729127705</v>
+        <v>326.306534639692</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.67467827192593</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>124.3589898130758</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>102.9863699957307</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.146865729423675</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>52.94985625022227</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>90.22000922289686</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>849424.7856161868</v>
+        <v>856275.0252665116</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>849424.7856161868</v>
+        <v>856907.6868507873</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852653.4787615163</v>
+        <v>856907.6868507873</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657707.0986277477</v>
+        <v>658370.9944302698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856945.8749520263</v>
+        <v>856945.8749520264</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856945.8749520263</v>
+        <v>856945.8749520264</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856945.8749520263</v>
+        <v>856945.8749520264</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856945.8749520263</v>
+        <v>856945.8749520262</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>107147.830225272</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,13 +26320,13 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>80872.77929248479</v>
+        <v>80954.41304529452</v>
       </c>
       <c r="F2" t="n">
-        <v>105371.5168274704</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="G2" t="n">
-        <v>105371.5168274704</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="H2" t="n">
         <v>105371.5168274705</v>
@@ -26353,7 +26353,7 @@
         <v>107229.4639780817</v>
       </c>
       <c r="P2" t="n">
-        <v>107229.4639780816</v>
+        <v>107229.4639780817</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978513</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652922</v>
+        <v>64353.58184153261</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238709</v>
+        <v>113238.4356313712</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442323</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941887</v>
+        <v>66700.39569712202</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526365</v>
+        <v>82426.51302796733</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>139150.7779471101</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>166775.6748273583</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>31561.92029321033</v>
+        <v>31593.77919582202</v>
       </c>
       <c r="F4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654599</v>
+        <v>46465.30974654598</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640303</v>
+        <v>55396.201086403</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640303</v>
+        <v>55396.201086403</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.201086403</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291314</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154769</v>
+        <v>53689.36553183983</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281951.1578746638</v>
+        <v>-329916.1912895508</v>
       </c>
       <c r="C6" t="n">
-        <v>-139759.8572149539</v>
+        <v>-106366.8078225805</v>
       </c>
       <c r="D6" t="n">
-        <v>-157950.1036019749</v>
+        <v>-106366.8078225805</v>
       </c>
       <c r="E6" t="n">
-        <v>-109543.4122175654</v>
+        <v>-69010.75166055976</v>
       </c>
       <c r="F6" t="n">
-        <v>-127086.6996321057</v>
+        <v>-126731.3336789886</v>
       </c>
       <c r="G6" t="n">
-        <v>-13469.6737082348</v>
+        <v>-13492.89804761739</v>
       </c>
       <c r="H6" t="n">
-        <v>-13469.67370823476</v>
+        <v>-13492.89804761739</v>
       </c>
       <c r="I6" t="n">
-        <v>-13469.67370823477</v>
+        <v>-13492.89804761739</v>
       </c>
       <c r="J6" t="n">
-        <v>-124484.1390532249</v>
+        <v>-188144.2467653235</v>
       </c>
       <c r="K6" t="n">
-        <v>-13469.67370823475</v>
+        <v>-13492.89804761739</v>
       </c>
       <c r="L6" t="n">
-        <v>-40029.88846265798</v>
+        <v>-13492.89804761739</v>
       </c>
       <c r="M6" t="n">
-        <v>-119149.0584009136</v>
+        <v>-85019.40000384691</v>
       </c>
       <c r="N6" t="n">
-        <v>-106432.4898896747</v>
+        <v>-106108.8648623783</v>
       </c>
       <c r="O6" t="n">
-        <v>-23682.35183441109</v>
+        <v>-23682.35183441101</v>
       </c>
       <c r="P6" t="n">
-        <v>-23682.35183441109</v>
+        <v>-23682.35183441102</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.2391970873873</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188765</v>
+        <v>883.048775194734</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104.943339567283</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314891</v>
+        <v>215.5335685868771</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658688</v>
+        <v>395.2117281900113</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.943339567283</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314891</v>
+        <v>215.5335685868771</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288468</v>
+        <v>336.535020752989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.943339567283</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314891</v>
+        <v>215.5335685868771</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658688</v>
+        <v>395.2117281900113</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>81.01727188636113</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>188.2245344746683</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.5444244275837</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>219.0118993322386</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,16 +27622,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>356.3413866025197</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>144.0834385072454</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63025464585155</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>58.66873794568178</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>151.9011713969242</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9530486999875</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.1441084374518</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>529.2391970873873</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>426.5811011551077</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873873</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873873</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543156</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873873</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>338.3796477275339</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.425469731854903</v>
+        <v>847.3700368030281</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.048775194734</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.0487751947339</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188765</v>
+        <v>883.0487751947339</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>757.9381297620657</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,7 +37476,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37701,7 +37701,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
         <v>186.127402120901</v>
@@ -37786,13 +37786,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>901.152332228356</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
         <v>480.3608287033061</v>
@@ -37950,7 +37950,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38175,7 +38175,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
